--- a/samples/index_sample1.xlsx
+++ b/samples/index_sample1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>数据来源：Wind资讯</t>
   </si>
@@ -41,19 +41,22 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Sample only</t>
+    <t>Return %</t>
   </si>
   <si>
-    <t xml:space="preserve">5 day moving </t>
+    <t>Correlation</t>
   </si>
   <si>
-    <t>沪深300 - 中证500</t>
+    <t>MV 5</t>
   </si>
   <si>
-    <t>5 day moving</t>
+    <t>CSI300-ZhongZheng 500</t>
   </si>
   <si>
-    <t>中证500 - 创业板</t>
+    <t>ZhongZheng 500-Chuang Ye Ban</t>
+  </si>
+  <si>
+    <t>CSI300-Chuang Ye Ban</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -147,6 +150,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,13 +472,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,9 +489,13 @@
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -495,11 +508,29 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>40319</v>
       </c>
@@ -512,8 +543,11 @@
       <c r="D2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="6">
+        <v>40319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>40322</v>
       </c>
@@ -526,8 +560,19 @@
       <c r="D3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="6">
+        <v>40322</v>
+      </c>
+      <c r="H3">
+        <f>(B3/B2-1)*100</f>
+        <v>3.7806392754093698</v>
+      </c>
+      <c r="I3">
+        <f>(C3/C2-1)*100</f>
+        <v>4.5473252837181732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>40323</v>
       </c>
@@ -540,11 +585,19 @@
       <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="6">
+        <v>40323</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H16" si="0">(B4/B3-1)*100</f>
+        <v>-2.0715727227264225</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:J16" si="1">(C4/C3-1)*100</f>
+        <v>-0.72369800529702433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>40324</v>
       </c>
@@ -557,11 +610,19 @@
       <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="6">
+        <v>40324</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>3.5537322529144433E-5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.27377335456555407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>40325</v>
       </c>
@@ -574,12 +635,22 @@
       <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="F6">
-        <f>CORREL(B2:B6,C2:C6)</f>
-        <v>0.87291178362772914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="6">
+        <v>40325</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.6359600617496195</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.7848258796495209</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>40326</v>
       </c>
@@ -592,12 +663,23 @@
       <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F16" si="0">CORREL(B3:B7,C3:C7)</f>
-        <v>0.59457125362221797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="6">
+        <v>40326</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-0.33835912781177147</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.39550689002159078</v>
+      </c>
+      <c r="L7">
+        <f>CORREL(H3:H7,I3:I7)</f>
+        <v>0.97817900521976497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>40329</v>
       </c>
@@ -610,12 +692,23 @@
       <c r="D8" s="7">
         <v>1000</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.94571451599783529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="6">
+        <v>40329</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-2.7028013171937593</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-3.0920435329356399</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L16" si="2">CORREL(H4:H8,I4:I8)</f>
+        <v>0.9329039678074752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>40330</v>
       </c>
@@ -628,12 +721,27 @@
       <c r="D9" s="7">
         <v>973.23299999999995</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.98082952269159229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="6">
+        <v>40330</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-1.0493771959683706</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-1.9144257185766067</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-2.6767000000000096</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.96112121902601555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>40331</v>
       </c>
@@ -646,15 +754,27 @@
       <c r="D10" s="7">
         <v>997.11900000000003</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.97989026520657241</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="6">
+        <v>40331</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.4870339287549541</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.4364140793270419</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>2.4542940899044741</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.95402891781400923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>40332</v>
       </c>
@@ -667,15 +787,27 @@
       <c r="D11" s="7">
         <v>998.39400000000001</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.98038757007141308</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="6">
+        <v>40332</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-0.7779071610178212</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-0.72560691308878322</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.12786838882821172</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.95593461729583151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>40333</v>
       </c>
@@ -688,16 +820,33 @@
       <c r="D12" s="7">
         <v>1027.681</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.69364017864938943</v>
+      <c r="G12" s="6">
+        <v>40333</v>
       </c>
       <c r="H12">
-        <f>CORREL(C8:C12,D8:D12)</f>
-        <v>0.70291431580557939</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.30390237698076916</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.86458139336973439</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>2.9334110581594075</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.96721185725291092</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>40336</v>
       </c>
@@ -710,16 +859,35 @@
       <c r="D13" s="7">
         <v>1069.4680000000001</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-9.6321850380388374E-3</v>
+      <c r="G13" s="6">
+        <v>40336</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H16" si="1">CORREL(C9:C13,D9:D13)</f>
-        <v>0.58115758522813499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-1.7736539727757461</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-0.4027111531204719</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>4.0661450391707099</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.76036264829589506</v>
+      </c>
+      <c r="M13">
+        <f>CORREL(I9:I13,J9:J13)</f>
+        <v>0.73515439581686282</v>
+      </c>
+      <c r="N13">
+        <f>CORREL(H9:H13,J9:J13)</f>
+        <v>0.14379675287497323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>40337</v>
       </c>
@@ -732,16 +900,35 @@
       <c r="D14" s="7">
         <v>1067.154</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>-0.24042904257703909</v>
+      <c r="G14" s="6">
+        <v>40337</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0.50532203102616136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.13432428873227931</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.90235448493432013</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>-0.21636926023033132</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.86514769849510731</v>
+      </c>
+      <c r="M14">
+        <f>CORREL(I10:I14,J10:J14)</f>
+        <v>3.6280970509975655E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N16" si="3">CORREL(H10:H14,J10:J14)</f>
+        <v>-0.31586058774763115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>40338</v>
       </c>
@@ -754,16 +941,35 @@
       <c r="D15" s="7">
         <v>1077.8230000000001</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.68029097310672693</v>
+      <c r="G15" s="6">
+        <v>40338</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0.64714180277808631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3.0673098865795057</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>2.4958892195467097</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.99976198374369663</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.94437832820877998</v>
+      </c>
+      <c r="M15">
+        <f>CORREL(I11:I15,J11:J15)</f>
+        <v>-0.19628245268994471</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>-0.36552028956053351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>40339</v>
       </c>
@@ -776,13 +982,32 @@
       <c r="D16" s="7">
         <v>1117.4780000000001</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.76072122565121025</v>
+      <c r="G16" s="6">
+        <v>40339</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0.74677657584567481</v>
+        <f t="shared" si="0"/>
+        <v>-1.1541504306228245</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.27742949052926846</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>3.6791755232538081</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.99314760140561542</v>
+      </c>
+      <c r="M16">
+        <f>CORREL(I12:I16,J12:J16)</f>
+        <v>-0.66907875509467929</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>-0.64694559258574702</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">

--- a/samples/index_sample1.xlsx
+++ b/samples/index_sample1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\stock_analysis\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Git\git\stock_analysis\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Wind资讯" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>数据来源：Wind资讯</t>
   </si>
@@ -57,12 +57,24 @@
   </si>
   <si>
     <t>CSI300-Chuang Ye Ban</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>stdev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-m\-d;@"/>
   </numFmts>
@@ -472,13 +484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,9 +505,10 @@
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -529,8 +542,11 @@
       <c r="M1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>40319</v>
       </c>
@@ -547,7 +563,7 @@
         <v>40319</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>40322</v>
       </c>
@@ -572,7 +588,7 @@
         <v>4.5473252837181732</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>40323</v>
       </c>
@@ -597,7 +613,7 @@
         <v>-0.72369800529702433</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>40324</v>
       </c>
@@ -622,7 +638,7 @@
         <v>0.27377335456555407</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>40325</v>
       </c>
@@ -650,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>40326</v>
       </c>
@@ -679,7 +695,7 @@
         <v>0.97817900521976497</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>40329</v>
       </c>
@@ -708,7 +724,7 @@
         <v>0.9329039678074752</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>40330</v>
       </c>
@@ -741,7 +757,7 @@
         <v>0.96112121902601555</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>40331</v>
       </c>
@@ -774,7 +790,7 @@
         <v>0.95402891781400923</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>40332</v>
       </c>
@@ -807,7 +823,7 @@
         <v>0.95593461729583151</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>40333</v>
       </c>
@@ -845,8 +861,17 @@
       <c r="N12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>40336</v>
       </c>
@@ -886,8 +911,20 @@
         <f>CORREL(H9:H13,J9:J13)</f>
         <v>0.14379675287497323</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <f>AVERAGE(L13:N13)</f>
+        <v>0.54643793232924376</v>
+      </c>
+      <c r="Q13">
+        <f>MEDIAN(L13:N13)</f>
+        <v>0.73515439581686282</v>
+      </c>
+      <c r="R13">
+        <f>_xlfn.STDEV.S(L13:N13)</f>
+        <v>0.34892521196168402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>40337</v>
       </c>
@@ -927,8 +964,20 @@
         <f t="shared" ref="N14:N16" si="3">CORREL(H10:H14,J10:J14)</f>
         <v>-0.31586058774763115</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <f t="shared" ref="P14:P16" si="4">AVERAGE(L14:N14)</f>
+        <v>0.19518936041915061</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q16" si="5">MEDIAN(L14:N14)</f>
+        <v>3.6280970509975655E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:R16" si="6">_xlfn.STDEV.S(L14:N14)</f>
+        <v>0.60632833541831721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>40338</v>
       </c>
@@ -968,8 +1017,20 @@
         <f t="shared" si="3"/>
         <v>-0.36552028956053351</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>0.12752519531943393</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>-0.19628245268994471</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>0.71245851941745619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>40339</v>
       </c>
@@ -1008,6 +1069,18 @@
       <c r="N16">
         <f t="shared" si="3"/>
         <v>-0.64694559258574702</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>-0.10762558209160362</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>-0.64694559258574702</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>0.95336177306970582</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
